--- a/data/Genome-wide screen refs.xlsx
+++ b/data/Genome-wide screen refs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbaeten/Desktop/Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weihan/Documents/GitHub/ts_machine_learning/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15810EA4-C86B-7941-BB9D-D7DDDD3400DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03B8D3E-FD07-4C4D-8667-5D67714CA529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="500" windowWidth="27040" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2320" yWindow="2480" windowWidth="27040" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2754,10 +2756,10 @@
   <dimension ref="A1:IV30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3369,7 +3371,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="49">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D4" s="50" t="s">
         <v>11</v>

--- a/data/Genome-wide screen refs.xlsx
+++ b/data/Genome-wide screen refs.xlsx
@@ -1,32 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weihan/Documents/GitHub/ts_machine_learning/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s.n.zhou/Documents/GitHub/ts_machine_learning/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03B8D3E-FD07-4C4D-8667-5D67714CA529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B664871-8265-554A-A8E7-569CA44117E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="2480" windowWidth="27040" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="460" windowWidth="27040" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -2756,10 +2746,10 @@
   <dimension ref="A1:IV30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7284,7 +7274,7 @@
       <c r="H18" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="25" t="s">
         <v>110</v>
       </c>
       <c r="J18" s="24" t="s">
@@ -9280,6 +9270,7 @@
     <hyperlink ref="I17" r:id="rId7" xr:uid="{059D079D-C31D-874A-AF5A-B160C4564490}"/>
     <hyperlink ref="I8" r:id="rId8" xr:uid="{F1D11705-934A-7F4E-BDC6-F32FB9296871}"/>
     <hyperlink ref="I19" r:id="rId9" xr:uid="{685811BC-B88D-1E4A-B0D0-E8E50C8EBB44}"/>
+    <hyperlink ref="I18" r:id="rId10" xr:uid="{49A692EE-DF1A-9040-BA81-74B97DC5CBA2}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>

--- a/data/Genome-wide screen refs.xlsx
+++ b/data/Genome-wide screen refs.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s.n.zhou/Documents/GitHub/ts_machine_learning/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weihan/Documents/GitHub/ts_machine_learning/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B664871-8265-554A-A8E7-569CA44117E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3425D65-8475-4741-9C8C-B43FFAAEB78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="460" windowWidth="27040" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="1300" windowWidth="35840" windowHeight="20060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -2749,7 +2749,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
